--- a/data/trans_dic/P71_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P71_R-Edad-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,09; 16,64</t>
+          <t>10,2; 16,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>24,57; 32,85</t>
+          <t>24,47; 33,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>24,7; 34,11</t>
+          <t>25,04; 34,31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,81; 21,41</t>
+          <t>9,53; 21,59</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,49; 24,8</t>
+          <t>17,93; 25,64</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>21,49; 29,99</t>
+          <t>21,33; 30,17</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>23,66; 32,2</t>
+          <t>23,81; 32,75</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>12,32; 24,11</t>
+          <t>12,51; 23,71</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>14,88; 19,74</t>
+          <t>14,83; 19,65</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>24,03; 30,55</t>
+          <t>24,08; 30,24</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>25,61; 31,87</t>
+          <t>25,47; 31,74</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>12,04; 20,08</t>
+          <t>12,29; 20,62</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,46; 20,27</t>
+          <t>14,32; 20,02</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>26,38; 33,54</t>
+          <t>26,56; 33,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>31,1; 38,94</t>
+          <t>30,65; 38,64</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,07; 18,58</t>
+          <t>10,23; 18,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,99; 24,91</t>
+          <t>18,21; 24,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>29,9; 37,63</t>
+          <t>29,89; 37,95</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>28,43; 36,33</t>
+          <t>28,44; 36,25</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,02; 27,18</t>
+          <t>13,82; 26,55</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>16,8; 21,22</t>
+          <t>16,89; 21,6</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>29,06; 34,46</t>
+          <t>28,97; 34,23</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>30,96; 36,54</t>
+          <t>30,75; 36,28</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>13,15; 21,0</t>
+          <t>13,32; 21,42</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,05; 18,04</t>
+          <t>12,2; 18,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>31,19; 38,87</t>
+          <t>31,43; 38,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>29,05; 36,24</t>
+          <t>29,3; 36,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,9; 16,9</t>
+          <t>10,9; 17,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>22,35; 29,09</t>
+          <t>22,43; 29,54</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>32,32; 39,32</t>
+          <t>31,33; 38,86</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>33,45; 41,04</t>
+          <t>33,45; 41,06</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,31; 16,58</t>
+          <t>11,33; 16,62</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>18,29; 23,05</t>
+          <t>18,18; 22,67</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>32,51; 38,01</t>
+          <t>32,41; 37,9</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>32,29; 37,46</t>
+          <t>32,23; 37,27</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>11,92; 15,91</t>
+          <t>11,95; 16,04</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,03; 19,55</t>
+          <t>12,71; 19,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>29,81; 37,59</t>
+          <t>29,24; 37,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>34,92; 42,65</t>
+          <t>34,65; 42,61</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,45; 15,51</t>
+          <t>9,15; 15,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,65; 30,32</t>
+          <t>22,5; 30,24</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>30,11; 37,92</t>
+          <t>29,84; 38,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>38,62; 46,61</t>
+          <t>38,33; 46,41</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,5; 17,9</t>
+          <t>12,63; 18,24</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,46; 23,73</t>
+          <t>18,79; 24,38</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>30,93; 36,88</t>
+          <t>30,93; 36,82</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>37,79; 43,34</t>
+          <t>38,03; 43,53</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>11,5; 15,79</t>
+          <t>11,46; 15,51</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>19,46; 27,95</t>
+          <t>19,23; 27,89</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>25,39; 34,41</t>
+          <t>25,97; 35,95</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>30,6; 39,87</t>
+          <t>30,87; 40,3</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>14,35; 20,74</t>
+          <t>14,8; 20,89</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>24,8; 34,05</t>
+          <t>24,77; 33,54</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>25,04; 34,35</t>
+          <t>24,77; 33,68</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>32,87; 42,7</t>
+          <t>33,5; 42,47</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>17,71; 23,01</t>
+          <t>17,81; 22,98</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>23,03; 29,57</t>
+          <t>23,41; 29,34</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>26,55; 33,08</t>
+          <t>26,56; 33,11</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>33,33; 40,25</t>
+          <t>33,0; 39,94</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>16,87; 20,75</t>
+          <t>16,97; 21,18</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>22,85; 30,77</t>
+          <t>22,74; 30,63</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>21,07; 28,69</t>
+          <t>21,32; 29,21</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>25,05; 32,4</t>
+          <t>25,09; 32,13</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,8; 11,66</t>
+          <t>7,66; 11,5</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>37,54; 44,95</t>
+          <t>37,26; 44,83</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>25,97; 32,67</t>
+          <t>25,91; 32,56</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>30,1; 37,57</t>
+          <t>30,03; 37,76</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>9,97; 16,72</t>
+          <t>9,57; 16,69</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>31,98; 37,78</t>
+          <t>32,09; 37,73</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>24,7; 30,13</t>
+          <t>24,73; 30,06</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>28,93; 34,26</t>
+          <t>29,18; 34,36</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>9,78; 13,78</t>
+          <t>9,74; 13,85</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>16,71; 19,44</t>
+          <t>16,7; 19,48</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>29,01; 32,17</t>
+          <t>28,8; 32,3</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>31,84; 35,09</t>
+          <t>31,93; 35,24</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>11,89; 14,57</t>
+          <t>12,05; 14,92</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>26,32; 29,4</t>
+          <t>26,26; 29,46</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>29,96; 33,26</t>
+          <t>30,0; 33,08</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>34,08; 37,42</t>
+          <t>34,04; 37,35</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>14,19; 17,63</t>
+          <t>14,24; 17,55</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>22,0; 24,11</t>
+          <t>21,96; 24,13</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>29,98; 32,31</t>
+          <t>29,98; 32,26</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>33,44; 35,81</t>
+          <t>33,27; 35,78</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>13,73; 15,91</t>
+          <t>13,71; 15,79</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P71_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P71_R-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,2; 16,42</t>
+          <t>10,6; 16,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>24,47; 33,4</t>
+          <t>24,59; 32,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>25,04; 34,31</t>
+          <t>24,77; 33,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,93; 25,64</t>
+          <t>17,71; 25,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>21,33; 30,17</t>
+          <t>21,4; 29,74</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>23,81; 32,75</t>
+          <t>23,58; 32,68</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>14,83; 19,65</t>
+          <t>15,04; 19,75</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>24,08; 30,24</t>
+          <t>24,42; 30,1</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>25,47; 31,74</t>
+          <t>25,61; 31,91</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,32; 20,02</t>
+          <t>14,19; 20,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>26,56; 33,34</t>
+          <t>26,2; 33,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>30,65; 38,64</t>
+          <t>31,16; 38,62</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>18,21; 24,78</t>
+          <t>17,97; 24,71</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>29,89; 37,95</t>
+          <t>30,03; 37,93</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>28,44; 36,25</t>
+          <t>28,89; 36,19</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>16,89; 21,6</t>
+          <t>16,79; 21,31</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>28,97; 34,23</t>
+          <t>29,28; 34,61</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>30,75; 36,28</t>
+          <t>31,14; 36,3</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,2; 18,03</t>
+          <t>12,14; 17,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>31,43; 38,89</t>
+          <t>31,35; 38,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>29,3; 36,36</t>
+          <t>29,04; 36,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>22,43; 29,54</t>
+          <t>22,45; 29,23</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>31,33; 38,86</t>
+          <t>32,17; 39,34</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>33,45; 41,06</t>
+          <t>33,45; 40,62</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>18,18; 22,67</t>
+          <t>18,38; 22,9</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>32,41; 37,9</t>
+          <t>32,88; 38,09</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>32,23; 37,27</t>
+          <t>32,41; 37,48</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,71; 19,66</t>
+          <t>12,66; 19,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>29,24; 37,58</t>
+          <t>29,75; 37,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>34,65; 42,61</t>
+          <t>34,79; 42,71</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,5; 30,24</t>
+          <t>22,39; 30,3</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,84; 38,02</t>
+          <t>30,09; 37,78</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>38,33; 46,41</t>
+          <t>38,74; 46,59</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,79; 24,38</t>
+          <t>18,44; 23,68</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>30,93; 36,82</t>
+          <t>30,99; 36,65</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>38,03; 43,53</t>
+          <t>38,07; 43,61</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>19,23; 27,89</t>
+          <t>19,33; 27,82</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>25,97; 35,95</t>
+          <t>25,71; 34,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>30,87; 40,3</t>
+          <t>30,9; 40,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>24,77; 33,54</t>
+          <t>24,53; 33,67</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>24,77; 33,68</t>
+          <t>24,95; 33,67</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>33,5; 42,47</t>
+          <t>33,44; 42,59</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>23,41; 29,34</t>
+          <t>23,19; 29,32</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>26,56; 33,11</t>
+          <t>26,52; 32,92</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>33,0; 39,94</t>
+          <t>33,49; 39,94</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>22,74; 30,63</t>
+          <t>22,84; 30,86</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>21,32; 29,21</t>
+          <t>21,25; 28,83</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>25,09; 32,13</t>
+          <t>25,19; 32,49</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>37,26; 44,83</t>
+          <t>37,2; 45,16</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>25,91; 32,56</t>
+          <t>25,91; 32,5</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>30,03; 37,76</t>
+          <t>30,12; 37,63</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>32,09; 37,73</t>
+          <t>32,42; 37,64</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>24,73; 30,06</t>
+          <t>24,61; 30,01</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>29,18; 34,36</t>
+          <t>29,02; 34,16</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>16,7; 19,48</t>
+          <t>16,91; 19,71</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>28,8; 32,3</t>
+          <t>29,11; 32,38</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>31,93; 35,24</t>
+          <t>32,09; 35,35</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>26,26; 29,46</t>
+          <t>26,18; 29,4</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>30,0; 33,08</t>
+          <t>30,08; 33,29</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>34,04; 37,35</t>
+          <t>34,0; 37,4</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>21,96; 24,13</t>
+          <t>21,97; 24,07</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>29,98; 32,26</t>
+          <t>29,93; 32,28</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>33,27; 35,78</t>
+          <t>33,4; 35,83</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">

--- a/data/trans_dic/P71_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P71_R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,6; 16,64</t>
+          <t>10,09; 16,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>24,59; 32,98</t>
+          <t>24,57; 32,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>24,77; 33,87</t>
+          <t>24,7; 34,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9,53; 21,59</t>
+          <t>8,81; 21,41</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,71; 25,0</t>
+          <t>17,49; 24,8</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>21,4; 29,74</t>
+          <t>21,49; 29,99</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>23,58; 32,68</t>
+          <t>23,66; 32,2</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>12,51; 23,71</t>
+          <t>12,32; 24,11</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>15,04; 19,75</t>
+          <t>14,88; 19,74</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>24,42; 30,1</t>
+          <t>24,03; 30,55</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>25,61; 31,91</t>
+          <t>25,61; 31,87</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>12,29; 20,62</t>
+          <t>12,04; 20,08</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,19; 20,33</t>
+          <t>14,46; 20,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>26,2; 33,38</t>
+          <t>26,38; 33,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>31,16; 38,62</t>
+          <t>31,1; 38,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,23; 18,2</t>
+          <t>10,07; 18,58</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,97; 24,71</t>
+          <t>17,99; 24,91</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>30,03; 37,93</t>
+          <t>29,9; 37,63</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>28,89; 36,19</t>
+          <t>28,43; 36,33</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>13,82; 26,55</t>
+          <t>14,02; 27,18</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>16,79; 21,31</t>
+          <t>16,8; 21,22</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>29,28; 34,61</t>
+          <t>29,06; 34,46</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>31,14; 36,3</t>
+          <t>30,96; 36,54</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>13,32; 21,42</t>
+          <t>13,15; 21,0</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,14; 17,89</t>
+          <t>12,05; 18,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>31,35; 38,97</t>
+          <t>31,19; 38,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>29,04; 36,17</t>
+          <t>29,05; 36,24</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,9; 17,1</t>
+          <t>10,9; 16,9</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>22,45; 29,23</t>
+          <t>22,35; 29,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>32,17; 39,34</t>
+          <t>32,32; 39,32</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>33,45; 40,62</t>
+          <t>33,45; 41,04</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,33; 16,62</t>
+          <t>11,31; 16,58</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>18,38; 22,9</t>
+          <t>18,29; 23,05</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>32,88; 38,09</t>
+          <t>32,51; 38,01</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>32,41; 37,48</t>
+          <t>32,29; 37,46</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>11,95; 16,04</t>
+          <t>11,92; 15,91</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,66; 19,56</t>
+          <t>13,03; 19,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>29,75; 37,81</t>
+          <t>29,81; 37,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>34,79; 42,71</t>
+          <t>34,92; 42,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,15; 15,27</t>
+          <t>9,45; 15,51</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,39; 30,3</t>
+          <t>22,65; 30,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>30,09; 37,78</t>
+          <t>30,11; 37,92</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>38,74; 46,59</t>
+          <t>38,62; 46,61</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,63; 18,24</t>
+          <t>12,5; 17,9</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,44; 23,68</t>
+          <t>18,46; 23,73</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>30,99; 36,65</t>
+          <t>30,93; 36,88</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>38,07; 43,61</t>
+          <t>37,79; 43,34</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>11,46; 15,51</t>
+          <t>11,5; 15,79</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>19,33; 27,82</t>
+          <t>19,46; 27,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>25,71; 34,84</t>
+          <t>25,39; 34,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>30,9; 40,05</t>
+          <t>30,6; 39,87</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>14,8; 20,89</t>
+          <t>14,35; 20,74</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>24,53; 33,67</t>
+          <t>24,8; 34,05</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>24,95; 33,67</t>
+          <t>25,04; 34,35</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>33,44; 42,59</t>
+          <t>32,87; 42,7</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>17,81; 22,98</t>
+          <t>17,71; 23,01</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>23,19; 29,32</t>
+          <t>23,03; 29,57</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>26,52; 32,92</t>
+          <t>26,55; 33,08</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>33,49; 39,94</t>
+          <t>33,33; 40,25</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>16,97; 21,18</t>
+          <t>16,87; 20,75</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>22,84; 30,86</t>
+          <t>22,85; 30,77</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>21,25; 28,83</t>
+          <t>21,07; 28,69</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>25,19; 32,49</t>
+          <t>25,05; 32,4</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,66; 11,5</t>
+          <t>7,8; 11,66</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>37,2; 45,16</t>
+          <t>37,54; 44,95</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>25,91; 32,5</t>
+          <t>25,97; 32,67</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>30,12; 37,63</t>
+          <t>30,1; 37,57</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>9,57; 16,69</t>
+          <t>9,97; 16,72</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>32,42; 37,64</t>
+          <t>31,98; 37,78</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>24,61; 30,01</t>
+          <t>24,7; 30,13</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>29,02; 34,16</t>
+          <t>28,93; 34,26</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>9,74; 13,85</t>
+          <t>9,78; 13,78</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>16,91; 19,71</t>
+          <t>16,71; 19,44</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>29,11; 32,38</t>
+          <t>29,01; 32,17</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>32,09; 35,35</t>
+          <t>31,84; 35,09</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>12,05; 14,92</t>
+          <t>11,89; 14,57</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>26,18; 29,4</t>
+          <t>26,32; 29,4</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>30,08; 33,29</t>
+          <t>29,96; 33,26</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>34,0; 37,4</t>
+          <t>34,08; 37,42</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>14,24; 17,55</t>
+          <t>14,19; 17,63</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>21,97; 24,07</t>
+          <t>22,0; 24,11</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>29,93; 32,28</t>
+          <t>29,98; 32,31</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>33,4; 35,83</t>
+          <t>33,44; 35,81</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>13,71; 15,79</t>
+          <t>13,73; 15,91</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P71_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P71_R-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>14,39%</t>
+          <t>13,07%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>17,57%</t>
+          <t>18,63%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>15,95%</t>
+          <t>15,56%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,81; 21,41</t>
+          <t>7,9; 20,2</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>12,32; 24,11</t>
+          <t>12,9; 26,19</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>12,04; 20,08</t>
+          <t>11,59; 19,79</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>13,53%</t>
+          <t>13,17%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>18,38%</t>
+          <t>27,04%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>16,13%</t>
+          <t>20,73%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,07; 18,58</t>
+          <t>9,69; 17,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,02; 27,18</t>
+          <t>14,32; 52,84</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>13,15; 21,0</t>
+          <t>13,42; 40,79</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>13,79%</t>
+          <t>13,62%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>13,99%</t>
+          <t>13,34%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>13,89%</t>
+          <t>13,47%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,9; 16,9</t>
+          <t>10,77; 16,68</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,31; 16,58</t>
+          <t>10,03; 15,92</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>11,92; 15,91</t>
+          <t>11,24; 15,59</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,22%</t>
+          <t>9,16%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>14,76%</t>
+          <t>14,45%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>13,5%</t>
+          <t>11,46%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,45; 15,51</t>
+          <t>4,16; 13,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,5; 17,9</t>
+          <t>12,24; 17,09</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>11,5; 15,79</t>
+          <t>6,83; 14,46</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>17,38%</t>
+          <t>17,23%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>20,18%</t>
+          <t>19,95%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>18,78%</t>
+          <t>18,58%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>14,35; 20,74</t>
+          <t>14,17; 20,42</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>17,71; 23,01</t>
+          <t>17,59; 22,75</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>16,87; 20,75</t>
+          <t>16,69; 20,46</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>26,55%</t>
+          <t>23,24%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>24,81%</t>
+          <t>22,77%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>28,7%</t>
+          <t>29,1%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>9,52%</t>
+          <t>9,8%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>41,17%</t>
+          <t>40,61%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>29,15%</t>
+          <t>26,89%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>33,74%</t>
+          <t>31,64%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>14,2%</t>
+          <t>8,0%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>34,98%</t>
+          <t>32,62%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>27,29%</t>
+          <t>24,97%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>31,58%</t>
+          <t>30,46%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>12,3%</t>
+          <t>8,68%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>22,85; 30,77</t>
+          <t>18,62; 28,42</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>21,07; 28,69</t>
+          <t>17,88; 27,94</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>25,05; 32,4</t>
+          <t>24,35; 35,04</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,8; 11,66</t>
+          <t>7,6; 12,28</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>37,54; 44,95</t>
+          <t>35,75; 45,2</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>25,97; 32,67</t>
+          <t>22,56; 32,32</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>30,1; 37,57</t>
+          <t>27,2; 36,48</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>9,97; 16,72</t>
+          <t>2,97; 12,8</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>31,98; 37,78</t>
+          <t>29,27; 36,47</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>24,7; 30,13</t>
+          <t>21,63; 28,67</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>28,93; 34,26</t>
+          <t>27,46; 34,08</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>9,78; 13,78</t>
+          <t>4,34; 11,78</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,32 +1496,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>18,08%</t>
+          <t>31,17%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>30,62%</t>
+          <t>27,32%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>33,5%</t>
+          <t>28,19%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>13,24%</t>
+          <t>8,78%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>27,82%</t>
+          <t>41,74%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>31,61%</t>
+          <t>31,21%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1531,27 +1531,27 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>16,06%</t>
+          <t>19,34%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>23,01%</t>
+          <t>37,71%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>31,13%</t>
+          <t>29,69%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>34,63%</t>
+          <t>32,78%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>14,73%</t>
+          <t>15,1%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>24,86; 37,84</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>21,24; 33,61</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>23,37; 33,13</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>6,33; 11,96</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>35,61; 47,42</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>26,46; 36,02</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>30,25; 40,91</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>16,87; 22,27</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>33,59; 42,22</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>25,83; 33,45</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>29,17; 36,83</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>13,19; 16,81</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>18,08%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>30,62%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>33,5%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>12,13%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>27,82%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>31,61%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>35,71%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>16,67%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>23,01%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>31,13%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>34,63%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>14,48%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>16,71; 19,44</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>29,01; 32,17</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>31,84; 35,09</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>11,89; 14,57</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>9,69; 13,64</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>26,32; 29,4</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>29,96; 33,26</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>34,08; 37,42</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>14,19; 17,63</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>13,98; 22,33</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>22,0; 24,11</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>29,98; 32,31</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>33,44; 35,81</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>13,73; 15,91</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>12,74; 17,43</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/P71_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P71_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,09; 16,64</t>
+          <t>10,7; 16,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>24,57; 32,85</t>
+          <t>24,92; 33,79</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>24,7; 34,11</t>
+          <t>25,01; 33,8</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,9; 20,2</t>
+          <t>8,4; 19,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,49; 24,8</t>
+          <t>17,83; 25,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>21,49; 29,99</t>
+          <t>21,22; 30,42</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>23,66; 32,2</t>
+          <t>23,54; 32,11</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>12,9; 26,19</t>
+          <t>13,16; 25,49</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>14,88; 19,74</t>
+          <t>14,96; 19,92</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>24,03; 30,55</t>
+          <t>24,31; 30,33</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>25,61; 31,87</t>
+          <t>25,83; 32,01</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>11,59; 19,79</t>
+          <t>11,6; 20,05</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,46; 20,27</t>
+          <t>14,55; 20,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>26,38; 33,54</t>
+          <t>26,58; 33,32</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>31,1; 38,94</t>
+          <t>30,91; 38,96</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,69; 17,9</t>
+          <t>9,5; 17,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,99; 24,91</t>
+          <t>17,68; 24,52</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>29,9; 37,63</t>
+          <t>29,82; 37,64</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>28,43; 36,33</t>
+          <t>28,18; 35,91</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,32; 52,84</t>
+          <t>14,18; 52,24</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>16,8; 21,22</t>
+          <t>16,98; 21,43</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>29,06; 34,46</t>
+          <t>29,45; 34,43</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>30,96; 36,54</t>
+          <t>30,88; 36,1</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>13,42; 40,79</t>
+          <t>13,52; 38,45</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,05; 18,04</t>
+          <t>12,13; 18,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>31,19; 38,87</t>
+          <t>31,09; 38,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>29,05; 36,24</t>
+          <t>28,73; 36,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>10,77; 16,68</t>
+          <t>10,71; 16,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>22,35; 29,09</t>
+          <t>22,52; 29,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>32,32; 39,32</t>
+          <t>31,93; 39,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>33,45; 41,04</t>
+          <t>33,35; 40,51</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>10,03; 15,92</t>
+          <t>9,68; 16,03</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>18,29; 23,05</t>
+          <t>18,19; 22,65</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>32,51; 38,01</t>
+          <t>32,75; 38,06</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>32,29; 37,46</t>
+          <t>32,15; 37,38</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>11,24; 15,59</t>
+          <t>11,07; 15,53</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,03; 19,55</t>
+          <t>12,7; 19,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>29,81; 37,59</t>
+          <t>29,75; 37,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>34,92; 42,65</t>
+          <t>34,99; 42,9</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,16; 13,93</t>
+          <t>4,32; 13,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,65; 30,32</t>
+          <t>22,23; 30,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>30,11; 37,92</t>
+          <t>29,67; 38,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>38,62; 46,61</t>
+          <t>38,2; 46,54</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,24; 17,09</t>
+          <t>12,31; 17,04</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>18,46; 23,73</t>
+          <t>18,71; 23,8</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>30,93; 36,88</t>
+          <t>30,7; 36,43</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>37,79; 43,34</t>
+          <t>38,09; 43,77</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,83; 14,46</t>
+          <t>7,11; 14,32</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>19,46; 27,95</t>
+          <t>19,45; 27,94</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>25,39; 34,41</t>
+          <t>25,87; 35,42</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>30,6; 39,87</t>
+          <t>30,84; 39,74</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>14,17; 20,42</t>
+          <t>14,37; 20,45</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>24,8; 34,05</t>
+          <t>24,6; 33,42</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>25,04; 34,35</t>
+          <t>25,11; 34,04</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>32,87; 42,7</t>
+          <t>33,61; 42,89</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>17,59; 22,75</t>
+          <t>17,44; 22,71</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>23,03; 29,57</t>
+          <t>23,32; 29,51</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>26,55; 33,08</t>
+          <t>26,83; 33,2</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>33,33; 40,25</t>
+          <t>33,5; 39,59</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>16,69; 20,46</t>
+          <t>16,7; 20,54</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>18,62; 28,42</t>
+          <t>18,91; 28,53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>17,88; 27,94</t>
+          <t>18,24; 28,57</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>24,35; 35,04</t>
+          <t>24,02; 34,07</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,6; 12,28</t>
+          <t>7,4; 12,63</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>35,75; 45,2</t>
+          <t>35,35; 45,72</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>22,56; 32,32</t>
+          <t>22,38; 31,77</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>27,2; 36,48</t>
+          <t>27,35; 36,69</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,97; 12,8</t>
+          <t>2,71; 12,89</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>29,27; 36,47</t>
+          <t>29,27; 36,57</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>21,63; 28,67</t>
+          <t>21,4; 28,76</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>27,46; 34,08</t>
+          <t>26,99; 34,03</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>4,34; 11,78</t>
+          <t>4,2; 11,51</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>24,86; 37,84</t>
+          <t>24,72; 37,46</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>21,24; 33,61</t>
+          <t>21,33; 33,75</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>23,37; 33,13</t>
+          <t>23,31; 33,71</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,33; 11,96</t>
+          <t>6,26; 11,47</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>35,61; 47,42</t>
+          <t>35,38; 47,63</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>26,46; 36,02</t>
+          <t>26,63; 36,25</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>30,25; 40,91</t>
+          <t>29,93; 40,98</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>16,87; 22,27</t>
+          <t>16,46; 22,21</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>33,59; 42,22</t>
+          <t>33,34; 42,21</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>25,83; 33,45</t>
+          <t>25,96; 33,68</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>29,17; 36,83</t>
+          <t>28,93; 36,62</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>13,19; 16,81</t>
+          <t>13,15; 17,28</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>16,71; 19,44</t>
+          <t>16,6; 19,4</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>29,01; 32,17</t>
+          <t>29,1; 32,22</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>31,84; 35,09</t>
+          <t>31,94; 35,14</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>9,69; 13,64</t>
+          <t>9,65; 13,64</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>26,32; 29,4</t>
+          <t>26,34; 29,49</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>29,96; 33,26</t>
+          <t>29,96; 33,27</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>34,08; 37,42</t>
+          <t>34,14; 37,32</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>13,98; 22,33</t>
+          <t>14,22; 22,23</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>22,0; 24,11</t>
+          <t>21,85; 23,98</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>29,98; 32,31</t>
+          <t>29,95; 32,27</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>33,44; 35,81</t>
+          <t>33,49; 35,86</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>12,74; 17,43</t>
+          <t>12,82; 17,44</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que llega a fin de mes con dificultad o mucha dificultad</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>64757</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>129964</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>121457</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>49978</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>98136</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>110343</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>110461</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>57810</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>162893</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>240307</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>231918</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>107788</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>51969; 81355</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>112453; 152486</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>103511; 139879</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>32094; 75599</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>82022; 115010</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>91110; 130575</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>92506; 126189</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>40836; 79089</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>141487; 188411</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>214053; 267108</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>208424; 258279</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>80367; 138891</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>390</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>383</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>125175</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>204162</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>206092</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>55441</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>130367</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>205798</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>181194</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>136342</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>255542</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>409960</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>387286</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>191783</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>106468; 148556</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>182135; 228299</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>182544; 230064</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>40006; 74364</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>108524; 150490</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>182004; 229708</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>158257; 201661</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>71515; 263386</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>228401; 288364</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>381513; 446087</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>355811; 415841</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>125065; 355742</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>461</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>453</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>94931</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>237662</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>217274</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>72824</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>173322</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>250796</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>243858</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>78666</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>268253</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>488457</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>461133</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>151490</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>77054; 114328</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>211092; 264093</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>191374; 242285</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>57263; 87558</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>152600; 199654</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>225749; 277289</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>219400; 266516</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>57073; 94531</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>238862; 297360</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>453828; 527431</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>425627; 494940</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>124516; 174630</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>364</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>480</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>82575</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>206356</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>249652</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>80593</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>133362</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>207807</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>275494</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>97776</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>215938</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>414164</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>525146</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>178369</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>65562; 101396</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>182843; 232201</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>224676; 275473</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>38040; 119837</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>112367; 153317</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>182122; 236259</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>247531; 301587</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>83322; 115306</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>191114; 243205</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>377123; 447554</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>491410; 564664</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>110736; 222934</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>314</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>304</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>87713</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>128258</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>167068</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>95138</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>114932</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>129550</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>188177</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>107772</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>202645</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>257808</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>355245</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>202910</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>73162; 105100</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>109915; 150474</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>146423; 188684</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>79339; 112902</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>97657; 132633</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>111104; 150595</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>166236; 212130</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>94216; 122668</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>180275; 228099</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>232714; 287951</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>324719; 383727</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>182425; 224352</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>65703</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>69564</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>94721</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>35789</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>134875</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>94907</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>118357</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>48398</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>200578</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>164472</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>213078</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>84187</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>53482; 80661</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>55722; 87283</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>78171; 110903</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>27023; 46125</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>117393; 151843</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>79021; 112143</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>102331; 137273</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>16402; 77941</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>179989; 224863</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>140950; 189370</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>188807; 238062</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>40767; 111646</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>63287</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>67969</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>71733</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>24635</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>137337</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>120726</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>142020</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>80804</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>200625</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>188695</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>213753</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>105439</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>50186; 76067</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>53065; 83960</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>59310; 85775</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>17561; 32207</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>116413; 156711</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>102997; 140227</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>119037; 162994</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>68754; 92796</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>177407; 224584</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>165019; 214047</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>188644; 238829</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>91854; 120677</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>574</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>978</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>1066</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>455</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>1031</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>1188</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>861</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>1459</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>2254</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>1316</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>584141</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>1043935</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>1127997</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>414398</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>922333</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>1119928</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>1259561</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>607568</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>1506475</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>2163863</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>2387558</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>1021966</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>536405; 626782</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>992066; 1098336</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>1075363; 1183427</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>329674; 465813</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>873035; 977713</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>1061306; 1178750</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>1203999; 1316227</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>518264; 809900</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>1429935; 1569869</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>2081858; 2243353</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>2308918; 2472259</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>904865; 1231268</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>